--- a/excel/table2.xlsx
+++ b/excel/table2.xlsx
@@ -19,7 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dataType" : "int",
+    "minValue" : 1,
+    "maxValue" : 99,
+    "idType" : "id"
+}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,11 +368,18 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="好" xfId="7" builtinId="26" customBuiltin="1"/>
@@ -750,15 +771,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
@@ -769,7 +791,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -783,6 +807,26 @@
     <row r="2" spans="1:10">
       <c r="J2" s="3"/>
     </row>
+    <row r="4" spans="1:10" ht="85.5">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
